--- a/data/tablasLegendarios/legendario_mas_fuerte_xgeneracion.xlsx
+++ b/data/tablasLegendarios/legendario_mas_fuerte_xgeneracion.xlsx
@@ -939,11 +939,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Miraidon</t>
+          <t>Koraidon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -973,16 +973,16 @@
         <v>100</v>
       </c>
       <c r="I10" t="n">
+        <v>135</v>
+      </c>
+      <c r="J10" t="n">
+        <v>115</v>
+      </c>
+      <c r="K10" t="n">
         <v>85</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>100</v>
-      </c>
-      <c r="K10" t="n">
-        <v>135</v>
-      </c>
-      <c r="L10" t="n">
-        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>135</v>
